--- a/MainTop/29.07.2024/макс/макс_месяц с 29.06.2024 по 29.07.2024/shk-excel.xlsx
+++ b/MainTop/29.07.2024/макс/макс_месяц с 29.06.2024 по 29.07.2024/shk-excel.xlsx
@@ -193,37 +193,37 @@
     <t xml:space="preserve">OZN1336986278</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489754989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1489754799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1336986092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1463878336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1463877564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1463877577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1463874347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1463877507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1489755051</t>
+  </si>
+  <si>
     <t xml:space="preserve">WB_1216886544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1489754989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1489754799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1336986276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1336986092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1463878336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1463877564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1463877577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1463874347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1463877507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1489755051</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1463877271</t>
@@ -498,13 +498,15 @@
   </sheetPr>
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B120" activeCellId="0" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,7 +1023,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -1032,7 +1034,7 @@
         <v>51</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -1054,7 +1056,7 @@
         <v>53</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
@@ -1065,7 +1067,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
@@ -1090,117 +1092,117 @@
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,7 +1268,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1431,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,7 +1576,7 @@
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,7 +1697,7 @@
         <v>8</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,7 +1708,7 @@
         <v>7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,7 +1719,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +1752,7 @@
         <v>4</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1761,7 +1763,7 @@
         <v>4</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,7 +1818,7 @@
         <v>4</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
